--- a/DOC/Reflektion_dokumentation.xlsx
+++ b/DOC/Reflektion_dokumentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/horus/Documents/GitHub/dbExelExportLaravel/DOC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5472F15-D9AB-E640-BB26-3C3F1ACA1E38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0950A431-2067-0E4D-AA7F-D3BB2A4FBD52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="3060" windowWidth="28040" windowHeight="17440" xr2:uid="{9F591C6C-F6D9-8043-9DB1-AFDFF5C67E26}"/>
   </bookViews>
